--- a/docs/5管理/WBS(大)_脸谱系统 _1版.xlsx
+++ b/docs/5管理/WBS(大)_脸谱系统 _1版.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="62">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -380,6 +380,10 @@
   </si>
   <si>
     <t>版本4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集成测试</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1969,17 +1973,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="185" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2417,16 +2421,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:GS182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="15" ySplit="7" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="7" topLeftCell="AG8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="BA32" sqref="BA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.875" defaultRowHeight="10.5"/>
@@ -5103,7 +5107,7 @@
       <c r="GR7" s="63"/>
       <c r="GS7" s="63"/>
     </row>
-    <row r="8" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
+    <row r="8" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
       <c r="A8" s="157"/>
       <c r="B8" s="197"/>
       <c r="C8" s="198"/>
@@ -5306,7 +5310,7 @@
       <c r="GR8" s="152"/>
       <c r="GS8" s="152"/>
     </row>
-    <row r="9" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
+    <row r="9" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
       <c r="A9" s="157"/>
       <c r="B9" s="199"/>
       <c r="C9" s="200"/>
@@ -5509,11 +5513,11 @@
       <c r="GR9" s="152"/>
       <c r="GS9" s="152"/>
     </row>
-    <row r="10" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A10" s="179">
+    <row r="10" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A10" s="177">
         <v>1</v>
       </c>
-      <c r="B10" s="177"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="131" t="s">
         <v>33</v>
       </c>
@@ -5730,9 +5734,9 @@
       <c r="GR10" s="63"/>
       <c r="GS10" s="63"/>
     </row>
-    <row r="11" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A11" s="180"/>
-      <c r="B11" s="178"/>
+    <row r="11" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A11" s="178"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="175" t="str">
         <f t="shared" ref="C11:C19" si="6">C10</f>
         <v>准备</v>
@@ -5942,11 +5946,11 @@
       <c r="GR11" s="65"/>
       <c r="GS11" s="65"/>
     </row>
-    <row r="12" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A12" s="179">
+    <row r="12" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A12" s="177">
         <v>2</v>
       </c>
-      <c r="B12" s="177"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="175" t="str">
         <f t="shared" si="6"/>
         <v>准备</v>
@@ -6164,9 +6168,9 @@
       <c r="GR12" s="63"/>
       <c r="GS12" s="63"/>
     </row>
-    <row r="13" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A13" s="180"/>
-      <c r="B13" s="178"/>
+    <row r="13" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A13" s="178"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="175" t="str">
         <f t="shared" si="6"/>
         <v>准备</v>
@@ -6376,11 +6380,11 @@
       <c r="GR13" s="65"/>
       <c r="GS13" s="65"/>
     </row>
-    <row r="14" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A14" s="179">
+    <row r="14" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A14" s="177">
         <v>3</v>
       </c>
-      <c r="B14" s="177"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="176" t="str">
         <f t="shared" si="6"/>
         <v>准备</v>
@@ -6598,9 +6602,9 @@
       <c r="GR14" s="63"/>
       <c r="GS14" s="63"/>
     </row>
-    <row r="15" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A15" s="180"/>
-      <c r="B15" s="178"/>
+    <row r="15" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A15" s="178"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="175" t="str">
         <f t="shared" si="6"/>
         <v>准备</v>
@@ -6810,11 +6814,11 @@
       <c r="GR15" s="65"/>
       <c r="GS15" s="65"/>
     </row>
-    <row r="16" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A16" s="179">
+    <row r="16" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A16" s="177">
         <v>4</v>
       </c>
-      <c r="B16" s="177"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="175" t="str">
         <f t="shared" si="6"/>
         <v>准备</v>
@@ -7032,9 +7036,9 @@
       <c r="GR16" s="63"/>
       <c r="GS16" s="63"/>
     </row>
-    <row r="17" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A17" s="180"/>
-      <c r="B17" s="178"/>
+    <row r="17" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A17" s="178"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="175" t="str">
         <f t="shared" si="6"/>
         <v>准备</v>
@@ -7244,11 +7248,11 @@
       <c r="GR17" s="65"/>
       <c r="GS17" s="65"/>
     </row>
-    <row r="18" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A18" s="179">
+    <row r="18" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A18" s="177">
         <v>5</v>
       </c>
-      <c r="B18" s="177"/>
+      <c r="B18" s="179"/>
       <c r="C18" s="175" t="str">
         <f t="shared" si="6"/>
         <v>准备</v>
@@ -7466,9 +7470,9 @@
       <c r="GR18" s="63"/>
       <c r="GS18" s="63"/>
     </row>
-    <row r="19" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A19" s="180"/>
-      <c r="B19" s="178"/>
+    <row r="19" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A19" s="178"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="175" t="str">
         <f t="shared" si="6"/>
         <v>准备</v>
@@ -7679,10 +7683,10 @@
       <c r="GS19" s="65"/>
     </row>
     <row r="20" spans="1:201" s="71" customFormat="1">
-      <c r="A20" s="179">
+      <c r="A20" s="177">
         <v>6</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="131" t="s">
@@ -7901,9 +7905,9 @@
       <c r="GR20" s="63"/>
       <c r="GS20" s="63"/>
     </row>
-    <row r="21" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A21" s="180"/>
-      <c r="B21" s="178"/>
+    <row r="21" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A21" s="178"/>
+      <c r="B21" s="180"/>
       <c r="C21" s="175" t="str">
         <f>C20</f>
         <v>登录</v>
@@ -8114,10 +8118,10 @@
       <c r="GS21" s="65"/>
     </row>
     <row r="22" spans="1:201" s="71" customFormat="1">
-      <c r="A22" s="179">
+      <c r="A22" s="177">
         <v>7</v>
       </c>
-      <c r="B22" s="177" t="s">
+      <c r="B22" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="176" t="str">
@@ -8139,7 +8143,7 @@
         <v>43131</v>
       </c>
       <c r="L22" s="67">
-        <v>43138</v>
+        <v>43139</v>
       </c>
       <c r="M22" s="68" t="str">
         <f>IF(AND(K22&lt;&gt;"",L22&lt;&gt;""),IF($G$2&gt;=$K22,IF($G$2&gt;$L22,1,($G$2-$K22+1)/($L22-$K22+1)),""),"")</f>
@@ -8337,9 +8341,9 @@
       <c r="GR22" s="63"/>
       <c r="GS22" s="63"/>
     </row>
-    <row r="23" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A23" s="180"/>
-      <c r="B23" s="178"/>
+    <row r="23" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A23" s="178"/>
+      <c r="B23" s="180"/>
       <c r="C23" s="175" t="str">
         <f t="shared" si="7"/>
         <v>登录</v>
@@ -8550,10 +8554,10 @@
       <c r="GS23" s="65"/>
     </row>
     <row r="24" spans="1:201" s="71" customFormat="1">
-      <c r="A24" s="179">
+      <c r="A24" s="177">
         <v>8</v>
       </c>
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="175" t="str">
@@ -8574,10 +8578,10 @@
         <v>37</v>
       </c>
       <c r="K24" s="140">
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="L24" s="67">
-        <v>43138</v>
+        <v>43139</v>
       </c>
       <c r="M24" s="68" t="str">
         <f>IF(AND(K24&lt;&gt;"",L24&lt;&gt;""),IF($G$2&gt;=$K24,IF($G$2&gt;$L24,1,($G$2-$K24+1)/($L24-$K24+1)),""),"")</f>
@@ -8775,9 +8779,9 @@
       <c r="GR24" s="63"/>
       <c r="GS24" s="63"/>
     </row>
-    <row r="25" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A25" s="180"/>
-      <c r="B25" s="178"/>
+    <row r="25" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A25" s="178"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="175" t="str">
         <f t="shared" si="7"/>
         <v>登录</v>
@@ -8988,10 +8992,10 @@
       <c r="GS25" s="65"/>
     </row>
     <row r="26" spans="1:201" s="71" customFormat="1">
-      <c r="A26" s="179">
+      <c r="A26" s="177">
         <v>9</v>
       </c>
-      <c r="B26" s="177" t="s">
+      <c r="B26" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="175" t="str">
@@ -9213,9 +9217,9 @@
       <c r="GR26" s="63"/>
       <c r="GS26" s="63"/>
     </row>
-    <row r="27" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A27" s="180"/>
-      <c r="B27" s="178"/>
+    <row r="27" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A27" s="178"/>
+      <c r="B27" s="180"/>
       <c r="C27" s="175" t="str">
         <f t="shared" si="7"/>
         <v>登录</v>
@@ -9426,10 +9430,10 @@
       <c r="GS27" s="65"/>
     </row>
     <row r="28" spans="1:201" s="71" customFormat="1">
-      <c r="A28" s="179">
+      <c r="A28" s="177">
         <v>10</v>
       </c>
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="131" t="s">
@@ -9648,9 +9652,9 @@
       <c r="GR28" s="63"/>
       <c r="GS28" s="63"/>
     </row>
-    <row r="29" spans="1:201" s="71" customFormat="1">
-      <c r="A29" s="180"/>
-      <c r="B29" s="178"/>
+    <row r="29" spans="1:201" s="71" customFormat="1" hidden="1">
+      <c r="A29" s="178"/>
+      <c r="B29" s="180"/>
       <c r="C29" s="175" t="str">
         <f t="shared" ref="C29:C43" si="8">C28</f>
         <v>区域风险总览</v>
@@ -9861,10 +9865,10 @@
       <c r="GS29" s="65"/>
     </row>
     <row r="30" spans="1:201" s="71" customFormat="1">
-      <c r="A30" s="179">
+      <c r="A30" s="177">
         <v>11</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="176" t="str">
@@ -10084,9 +10088,9 @@
       <c r="GR30" s="63"/>
       <c r="GS30" s="63"/>
     </row>
-    <row r="31" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A31" s="180"/>
-      <c r="B31" s="178"/>
+    <row r="31" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A31" s="178"/>
+      <c r="B31" s="180"/>
       <c r="C31" s="175" t="str">
         <f t="shared" si="8"/>
         <v>区域风险总览</v>
@@ -10297,10 +10301,10 @@
       <c r="GS31" s="65"/>
     </row>
     <row r="32" spans="1:201" s="71" customFormat="1">
-      <c r="A32" s="179">
+      <c r="A32" s="177">
         <v>12</v>
       </c>
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="175" t="str">
@@ -10321,10 +10325,10 @@
         <v>37</v>
       </c>
       <c r="K32" s="140">
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="L32" s="67">
-        <v>43138</v>
+        <v>43139</v>
       </c>
       <c r="M32" s="68" t="str">
         <f>IF(AND(K32&lt;&gt;"",L32&lt;&gt;""),IF($G$2&gt;=$K32,IF($G$2&gt;$L32,1,($G$2-$K32+1)/($L32-$K32+1)),""),"")</f>
@@ -10522,9 +10526,9 @@
       <c r="GR32" s="63"/>
       <c r="GS32" s="63"/>
     </row>
-    <row r="33" spans="1:201" s="71" customFormat="1">
-      <c r="A33" s="180"/>
-      <c r="B33" s="178"/>
+    <row r="33" spans="1:201" s="71" customFormat="1" hidden="1">
+      <c r="A33" s="178"/>
+      <c r="B33" s="180"/>
       <c r="C33" s="175" t="str">
         <f t="shared" si="8"/>
         <v>区域风险总览</v>
@@ -10735,10 +10739,10 @@
       <c r="GS33" s="65"/>
     </row>
     <row r="34" spans="1:201" s="71" customFormat="1">
-      <c r="A34" s="179">
+      <c r="A34" s="177">
         <v>13</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="179" t="s">
         <v>57</v>
       </c>
       <c r="C34" s="175" t="str">
@@ -10960,9 +10964,9 @@
       <c r="GR34" s="63"/>
       <c r="GS34" s="63"/>
     </row>
-    <row r="35" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A35" s="180"/>
-      <c r="B35" s="178"/>
+    <row r="35" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A35" s="178"/>
+      <c r="B35" s="180"/>
       <c r="C35" s="175" t="str">
         <f t="shared" si="8"/>
         <v>区域风险总览</v>
@@ -11173,10 +11177,10 @@
       <c r="GS35" s="65"/>
     </row>
     <row r="36" spans="1:201" s="71" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A36" s="179">
+      <c r="A36" s="177">
         <v>14</v>
       </c>
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="179" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="170" t="s">
@@ -11197,7 +11201,7 @@
         <v>43136</v>
       </c>
       <c r="L36" s="67">
-        <v>43140</v>
+        <v>43139</v>
       </c>
       <c r="M36" s="68" t="str">
         <f>IF(AND(K36&lt;&gt;"",L36&lt;&gt;""),IF($G$2&gt;=$K36,IF($G$2&gt;$L36,1,($G$2-$K36+1)/($L36-$K36+1)),""),"")</f>
@@ -11395,9 +11399,9 @@
       <c r="GR36" s="63"/>
       <c r="GS36" s="63"/>
     </row>
-    <row r="37" spans="1:201" s="71" customFormat="1">
-      <c r="A37" s="180"/>
-      <c r="B37" s="178"/>
+    <row r="37" spans="1:201" s="71" customFormat="1" hidden="1">
+      <c r="A37" s="178"/>
+      <c r="B37" s="180"/>
       <c r="C37" s="175" t="str">
         <f t="shared" si="8"/>
         <v>关注上市公司风险总览</v>
@@ -11608,10 +11612,10 @@
       <c r="GS37" s="65"/>
     </row>
     <row r="38" spans="1:201" s="71" customFormat="1">
-      <c r="A38" s="179">
+      <c r="A38" s="177">
         <v>15</v>
       </c>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="179" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="176" t="str">
@@ -11831,9 +11835,9 @@
       <c r="GR38" s="63"/>
       <c r="GS38" s="63"/>
     </row>
-    <row r="39" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A39" s="180"/>
-      <c r="B39" s="178"/>
+    <row r="39" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A39" s="178"/>
+      <c r="B39" s="180"/>
       <c r="C39" s="175" t="str">
         <f t="shared" si="8"/>
         <v>关注上市公司风险总览</v>
@@ -12044,10 +12048,10 @@
       <c r="GS39" s="65"/>
     </row>
     <row r="40" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A40" s="179">
+      <c r="A40" s="177">
         <v>16</v>
       </c>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="179" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="175" t="str">
@@ -12068,7 +12072,7 @@
         <v>37</v>
       </c>
       <c r="K40" s="140">
-        <v>43143</v>
+        <v>43140</v>
       </c>
       <c r="L40" s="67">
         <v>43157</v>
@@ -12269,9 +12273,9 @@
       <c r="GR40" s="63"/>
       <c r="GS40" s="63"/>
     </row>
-    <row r="41" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A41" s="180"/>
-      <c r="B41" s="178"/>
+    <row r="41" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A41" s="178"/>
+      <c r="B41" s="180"/>
       <c r="C41" s="175" t="str">
         <f t="shared" si="8"/>
         <v>关注上市公司风险总览</v>
@@ -12482,10 +12486,10 @@
       <c r="GS41" s="65"/>
     </row>
     <row r="42" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A42" s="179">
+      <c r="A42" s="177">
         <v>17</v>
       </c>
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="179" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="175" t="str">
@@ -12506,7 +12510,7 @@
         <v>37</v>
       </c>
       <c r="K42" s="140">
-        <v>43158</v>
+        <v>43157</v>
       </c>
       <c r="L42" s="67">
         <v>43159</v>
@@ -12707,9 +12711,9 @@
       <c r="GR42" s="63"/>
       <c r="GS42" s="63"/>
     </row>
-    <row r="43" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A43" s="180"/>
-      <c r="B43" s="178"/>
+    <row r="43" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A43" s="178"/>
+      <c r="B43" s="180"/>
       <c r="C43" s="175" t="str">
         <f t="shared" si="8"/>
         <v>关注上市公司风险总览</v>
@@ -12920,10 +12924,10 @@
       <c r="GS43" s="65"/>
     </row>
     <row r="44" spans="1:201" s="71" customFormat="1" ht="21" customHeight="1">
-      <c r="A44" s="179">
+      <c r="A44" s="177">
         <v>18</v>
       </c>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="179" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="170" t="s">
@@ -13142,9 +13146,9 @@
       <c r="GR44" s="63"/>
       <c r="GS44" s="63"/>
     </row>
-    <row r="45" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A45" s="180"/>
-      <c r="B45" s="178"/>
+    <row r="45" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A45" s="178"/>
+      <c r="B45" s="180"/>
       <c r="C45" s="175" t="str">
         <f>C44</f>
         <v>上市公司风险展台</v>
@@ -13355,10 +13359,10 @@
       <c r="GS45" s="65"/>
     </row>
     <row r="46" spans="1:201" s="71" customFormat="1">
-      <c r="A46" s="179">
+      <c r="A46" s="177">
         <v>19</v>
       </c>
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="179" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="176" t="str">
@@ -13578,9 +13582,9 @@
       <c r="GR46" s="63"/>
       <c r="GS46" s="63"/>
     </row>
-    <row r="47" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A47" s="180"/>
-      <c r="B47" s="178"/>
+    <row r="47" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A47" s="178"/>
+      <c r="B47" s="180"/>
       <c r="C47" s="175" t="str">
         <f t="shared" si="9"/>
         <v>上市公司风险展台</v>
@@ -13791,10 +13795,10 @@
       <c r="GS47" s="65"/>
     </row>
     <row r="48" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A48" s="179">
+      <c r="A48" s="177">
         <v>20</v>
       </c>
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="179" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="175" t="str">
@@ -13815,7 +13819,7 @@
         <v>37</v>
       </c>
       <c r="K48" s="140">
-        <v>43160</v>
+        <v>43158</v>
       </c>
       <c r="L48" s="67">
         <v>43166</v>
@@ -14016,9 +14020,9 @@
       <c r="GR48" s="63"/>
       <c r="GS48" s="63"/>
     </row>
-    <row r="49" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A49" s="180"/>
-      <c r="B49" s="178"/>
+    <row r="49" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A49" s="178"/>
+      <c r="B49" s="180"/>
       <c r="C49" s="175" t="str">
         <f t="shared" si="9"/>
         <v>上市公司风险展台</v>
@@ -14229,10 +14233,10 @@
       <c r="GS49" s="65"/>
     </row>
     <row r="50" spans="1:201" s="71" customFormat="1">
-      <c r="A50" s="179">
+      <c r="A50" s="177">
         <v>21</v>
       </c>
-      <c r="B50" s="177" t="s">
+      <c r="B50" s="179" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="175" t="str">
@@ -14253,7 +14257,7 @@
         <v>37</v>
       </c>
       <c r="K50" s="140">
-        <v>43167</v>
+        <v>43166</v>
       </c>
       <c r="L50" s="67">
         <v>43168</v>
@@ -14454,9 +14458,9 @@
       <c r="GR50" s="63"/>
       <c r="GS50" s="63"/>
     </row>
-    <row r="51" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A51" s="180"/>
-      <c r="B51" s="178"/>
+    <row r="51" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A51" s="178"/>
+      <c r="B51" s="180"/>
       <c r="C51" s="175" t="str">
         <f t="shared" si="9"/>
         <v>上市公司风险展台</v>
@@ -14667,10 +14671,10 @@
       <c r="GS51" s="65"/>
     </row>
     <row r="52" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A52" s="179">
+      <c r="A52" s="177">
         <v>22</v>
       </c>
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="179" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="131" t="s">
@@ -14889,9 +14893,9 @@
       <c r="GR52" s="63"/>
       <c r="GS52" s="63"/>
     </row>
-    <row r="53" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A53" s="180"/>
-      <c r="B53" s="178"/>
+    <row r="53" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A53" s="178"/>
+      <c r="B53" s="180"/>
       <c r="C53" s="175" t="str">
         <f t="shared" ref="C53:C59" si="10">C52</f>
         <v>关联图谱</v>
@@ -15102,10 +15106,10 @@
       <c r="GS53" s="65"/>
     </row>
     <row r="54" spans="1:201" s="71" customFormat="1">
-      <c r="A54" s="179">
+      <c r="A54" s="177">
         <v>23</v>
       </c>
-      <c r="B54" s="177" t="s">
+      <c r="B54" s="179" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="176" t="str">
@@ -15325,9 +15329,9 @@
       <c r="GR54" s="63"/>
       <c r="GS54" s="63"/>
     </row>
-    <row r="55" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A55" s="180"/>
-      <c r="B55" s="178"/>
+    <row r="55" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A55" s="178"/>
+      <c r="B55" s="180"/>
       <c r="C55" s="175" t="str">
         <f t="shared" si="10"/>
         <v>关联图谱</v>
@@ -15538,10 +15542,10 @@
       <c r="GS55" s="65"/>
     </row>
     <row r="56" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A56" s="179">
+      <c r="A56" s="177">
         <v>24</v>
       </c>
-      <c r="B56" s="177" t="s">
+      <c r="B56" s="179" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="175" t="str">
@@ -15763,9 +15767,9 @@
       <c r="GR56" s="63"/>
       <c r="GS56" s="63"/>
     </row>
-    <row r="57" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A57" s="180"/>
-      <c r="B57" s="178"/>
+    <row r="57" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A57" s="178"/>
+      <c r="B57" s="180"/>
       <c r="C57" s="175" t="str">
         <f t="shared" si="10"/>
         <v>关联图谱</v>
@@ -15976,10 +15980,10 @@
       <c r="GS57" s="65"/>
     </row>
     <row r="58" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A58" s="179">
+      <c r="A58" s="177">
         <v>25</v>
       </c>
-      <c r="B58" s="177" t="s">
+      <c r="B58" s="179" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="175" t="str">
@@ -16201,9 +16205,9 @@
       <c r="GR58" s="63"/>
       <c r="GS58" s="63"/>
     </row>
-    <row r="59" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A59" s="180"/>
-      <c r="B59" s="178"/>
+    <row r="59" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A59" s="178"/>
+      <c r="B59" s="180"/>
       <c r="C59" s="175" t="str">
         <f t="shared" si="10"/>
         <v>关联图谱</v>
@@ -16414,10 +16418,10 @@
       <c r="GS59" s="65"/>
     </row>
     <row r="60" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A60" s="179">
+      <c r="A60" s="177">
         <v>26</v>
       </c>
-      <c r="B60" s="177" t="s">
+      <c r="B60" s="179" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="131" t="s">
@@ -16636,9 +16640,9 @@
       <c r="GR60" s="63"/>
       <c r="GS60" s="63"/>
     </row>
-    <row r="61" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A61" s="180"/>
-      <c r="B61" s="178"/>
+    <row r="61" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A61" s="178"/>
+      <c r="B61" s="180"/>
       <c r="C61" s="175" t="str">
         <f t="shared" ref="C61:C67" si="11">C60</f>
         <v>设置管理</v>
@@ -16849,10 +16853,10 @@
       <c r="GS61" s="65"/>
     </row>
     <row r="62" spans="1:201" s="71" customFormat="1">
-      <c r="A62" s="179">
+      <c r="A62" s="177">
         <v>27</v>
       </c>
-      <c r="B62" s="177" t="s">
+      <c r="B62" s="179" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="176" t="str">
@@ -17072,9 +17076,9 @@
       <c r="GR62" s="63"/>
       <c r="GS62" s="63"/>
     </row>
-    <row r="63" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A63" s="180"/>
-      <c r="B63" s="178"/>
+    <row r="63" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A63" s="178"/>
+      <c r="B63" s="180"/>
       <c r="C63" s="175" t="str">
         <f t="shared" si="11"/>
         <v>设置管理</v>
@@ -17285,10 +17289,10 @@
       <c r="GS63" s="65"/>
     </row>
     <row r="64" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A64" s="179">
+      <c r="A64" s="177">
         <v>28</v>
       </c>
-      <c r="B64" s="177" t="s">
+      <c r="B64" s="179" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="175" t="str">
@@ -17510,9 +17514,9 @@
       <c r="GR64" s="63"/>
       <c r="GS64" s="63"/>
     </row>
-    <row r="65" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A65" s="180"/>
-      <c r="B65" s="178"/>
+    <row r="65" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A65" s="178"/>
+      <c r="B65" s="180"/>
       <c r="C65" s="175" t="str">
         <f t="shared" si="11"/>
         <v>设置管理</v>
@@ -17723,10 +17727,10 @@
       <c r="GS65" s="65"/>
     </row>
     <row r="66" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A66" s="179">
+      <c r="A66" s="177">
         <v>29</v>
       </c>
-      <c r="B66" s="177" t="s">
+      <c r="B66" s="179" t="s">
         <v>60</v>
       </c>
       <c r="C66" s="175" t="str">
@@ -17948,9 +17952,9 @@
       <c r="GR66" s="63"/>
       <c r="GS66" s="63"/>
     </row>
-    <row r="67" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A67" s="180"/>
-      <c r="B67" s="178"/>
+    <row r="67" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A67" s="178"/>
+      <c r="B67" s="180"/>
       <c r="C67" s="175" t="str">
         <f t="shared" si="11"/>
         <v>设置管理</v>
@@ -18160,21 +18164,29 @@
       <c r="GR67" s="65"/>
       <c r="GS67" s="65"/>
     </row>
-    <row r="68" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A68" s="179">
+    <row r="68" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A68" s="177">
         <v>30</v>
       </c>
-      <c r="B68" s="177"/>
-      <c r="C68" s="147"/>
+      <c r="B68" s="179"/>
+      <c r="C68" s="147" t="s">
+        <v>61</v>
+      </c>
       <c r="D68" s="147"/>
       <c r="E68" s="138"/>
       <c r="F68" s="147"/>
       <c r="G68" s="147"/>
       <c r="H68" s="142"/>
       <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="140"/>
-      <c r="L68" s="67"/>
+      <c r="J68" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" s="140">
+        <v>43178</v>
+      </c>
+      <c r="L68" s="67">
+        <v>43189</v>
+      </c>
       <c r="M68" s="68" t="str">
         <f>IF(AND(K68&lt;&gt;"",L68&lt;&gt;""),IF($G$2&gt;=$K68,IF($G$2&gt;$L68,1,($G$2-$K68+1)/($L68-$K68+1)),""),"")</f>
         <v/>
@@ -18371,9 +18383,9 @@
       <c r="GR68" s="63"/>
       <c r="GS68" s="63"/>
     </row>
-    <row r="69" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A69" s="180"/>
-      <c r="B69" s="178"/>
+    <row r="69" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A69" s="178"/>
+      <c r="B69" s="180"/>
       <c r="C69" s="136"/>
       <c r="D69" s="72"/>
       <c r="E69" s="137"/>
@@ -18580,11 +18592,11 @@
       <c r="GR69" s="65"/>
       <c r="GS69" s="65"/>
     </row>
-    <row r="70" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A70" s="179">
+    <row r="70" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A70" s="177">
         <v>31</v>
       </c>
-      <c r="B70" s="177"/>
+      <c r="B70" s="179"/>
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
       <c r="E70" s="138"/>
@@ -18791,9 +18803,9 @@
       <c r="GR70" s="63"/>
       <c r="GS70" s="63"/>
     </row>
-    <row r="71" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A71" s="180"/>
-      <c r="B71" s="178"/>
+    <row r="71" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A71" s="178"/>
+      <c r="B71" s="180"/>
       <c r="C71" s="136"/>
       <c r="D71" s="72"/>
       <c r="E71" s="137"/>
@@ -19000,11 +19012,11 @@
       <c r="GR71" s="65"/>
       <c r="GS71" s="65"/>
     </row>
-    <row r="72" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A72" s="179">
+    <row r="72" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A72" s="177">
         <v>32</v>
       </c>
-      <c r="B72" s="177"/>
+      <c r="B72" s="179"/>
       <c r="C72" s="147"/>
       <c r="D72" s="147"/>
       <c r="E72" s="138"/>
@@ -19211,9 +19223,9 @@
       <c r="GR72" s="63"/>
       <c r="GS72" s="63"/>
     </row>
-    <row r="73" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A73" s="180"/>
-      <c r="B73" s="178"/>
+    <row r="73" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A73" s="178"/>
+      <c r="B73" s="180"/>
       <c r="C73" s="136"/>
       <c r="D73" s="72"/>
       <c r="E73" s="137"/>
@@ -19420,11 +19432,11 @@
       <c r="GR73" s="65"/>
       <c r="GS73" s="65"/>
     </row>
-    <row r="74" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A74" s="179">
+    <row r="74" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A74" s="177">
         <v>33</v>
       </c>
-      <c r="B74" s="177"/>
+      <c r="B74" s="179"/>
       <c r="C74" s="147"/>
       <c r="D74" s="147"/>
       <c r="E74" s="138"/>
@@ -19631,9 +19643,9 @@
       <c r="GR74" s="63"/>
       <c r="GS74" s="63"/>
     </row>
-    <row r="75" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A75" s="180"/>
-      <c r="B75" s="178"/>
+    <row r="75" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A75" s="178"/>
+      <c r="B75" s="180"/>
       <c r="C75" s="136"/>
       <c r="D75" s="72"/>
       <c r="E75" s="137"/>
@@ -19840,11 +19852,11 @@
       <c r="GR75" s="65"/>
       <c r="GS75" s="65"/>
     </row>
-    <row r="76" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A76" s="179">
+    <row r="76" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A76" s="177">
         <v>34</v>
       </c>
-      <c r="B76" s="177"/>
+      <c r="B76" s="179"/>
       <c r="C76" s="147"/>
       <c r="D76" s="147"/>
       <c r="E76" s="138"/>
@@ -20051,9 +20063,9 @@
       <c r="GR76" s="63"/>
       <c r="GS76" s="63"/>
     </row>
-    <row r="77" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A77" s="180"/>
-      <c r="B77" s="178"/>
+    <row r="77" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A77" s="178"/>
+      <c r="B77" s="180"/>
       <c r="C77" s="136"/>
       <c r="D77" s="72"/>
       <c r="E77" s="137"/>
@@ -20260,11 +20272,11 @@
       <c r="GR77" s="65"/>
       <c r="GS77" s="65"/>
     </row>
-    <row r="78" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A78" s="179">
+    <row r="78" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A78" s="177">
         <v>35</v>
       </c>
-      <c r="B78" s="177"/>
+      <c r="B78" s="179"/>
       <c r="C78" s="147"/>
       <c r="D78" s="147"/>
       <c r="E78" s="138"/>
@@ -20471,9 +20483,9 @@
       <c r="GR78" s="63"/>
       <c r="GS78" s="63"/>
     </row>
-    <row r="79" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A79" s="180"/>
-      <c r="B79" s="178"/>
+    <row r="79" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A79" s="178"/>
+      <c r="B79" s="180"/>
       <c r="C79" s="136"/>
       <c r="D79" s="72"/>
       <c r="E79" s="137"/>
@@ -20680,11 +20692,11 @@
       <c r="GR79" s="65"/>
       <c r="GS79" s="65"/>
     </row>
-    <row r="80" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A80" s="179">
+    <row r="80" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A80" s="177">
         <v>36</v>
       </c>
-      <c r="B80" s="177"/>
+      <c r="B80" s="179"/>
       <c r="C80" s="147"/>
       <c r="D80" s="147"/>
       <c r="E80" s="138"/>
@@ -20891,9 +20903,9 @@
       <c r="GR80" s="63"/>
       <c r="GS80" s="63"/>
     </row>
-    <row r="81" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A81" s="180"/>
-      <c r="B81" s="178"/>
+    <row r="81" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A81" s="178"/>
+      <c r="B81" s="180"/>
       <c r="C81" s="136"/>
       <c r="D81" s="72"/>
       <c r="E81" s="137"/>
@@ -21100,11 +21112,11 @@
       <c r="GR81" s="65"/>
       <c r="GS81" s="65"/>
     </row>
-    <row r="82" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A82" s="179">
+    <row r="82" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A82" s="177">
         <v>37</v>
       </c>
-      <c r="B82" s="177"/>
+      <c r="B82" s="179"/>
       <c r="C82" s="147"/>
       <c r="D82" s="147"/>
       <c r="E82" s="138"/>
@@ -21311,9 +21323,9 @@
       <c r="GR82" s="63"/>
       <c r="GS82" s="63"/>
     </row>
-    <row r="83" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A83" s="180"/>
-      <c r="B83" s="178"/>
+    <row r="83" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A83" s="178"/>
+      <c r="B83" s="180"/>
       <c r="C83" s="136"/>
       <c r="D83" s="72"/>
       <c r="E83" s="137"/>
@@ -21520,11 +21532,11 @@
       <c r="GR83" s="65"/>
       <c r="GS83" s="65"/>
     </row>
-    <row r="84" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A84" s="179">
+    <row r="84" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A84" s="177">
         <v>38</v>
       </c>
-      <c r="B84" s="177"/>
+      <c r="B84" s="179"/>
       <c r="C84" s="147"/>
       <c r="D84" s="147"/>
       <c r="E84" s="138"/>
@@ -21731,9 +21743,9 @@
       <c r="GR84" s="63"/>
       <c r="GS84" s="63"/>
     </row>
-    <row r="85" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A85" s="180"/>
-      <c r="B85" s="178"/>
+    <row r="85" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A85" s="178"/>
+      <c r="B85" s="180"/>
       <c r="C85" s="136"/>
       <c r="D85" s="72"/>
       <c r="E85" s="137"/>
@@ -21940,11 +21952,11 @@
       <c r="GR85" s="65"/>
       <c r="GS85" s="65"/>
     </row>
-    <row r="86" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A86" s="179">
+    <row r="86" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A86" s="177">
         <v>39</v>
       </c>
-      <c r="B86" s="177"/>
+      <c r="B86" s="179"/>
       <c r="C86" s="147"/>
       <c r="D86" s="147"/>
       <c r="E86" s="138"/>
@@ -22151,9 +22163,9 @@
       <c r="GR86" s="63"/>
       <c r="GS86" s="63"/>
     </row>
-    <row r="87" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A87" s="180"/>
-      <c r="B87" s="178"/>
+    <row r="87" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A87" s="178"/>
+      <c r="B87" s="180"/>
       <c r="C87" s="136"/>
       <c r="D87" s="72"/>
       <c r="E87" s="137"/>
@@ -22360,11 +22372,11 @@
       <c r="GR87" s="65"/>
       <c r="GS87" s="65"/>
     </row>
-    <row r="88" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A88" s="179">
+    <row r="88" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A88" s="177">
         <v>40</v>
       </c>
-      <c r="B88" s="177"/>
+      <c r="B88" s="179"/>
       <c r="C88" s="147"/>
       <c r="D88" s="147"/>
       <c r="E88" s="138"/>
@@ -22571,9 +22583,9 @@
       <c r="GR88" s="63"/>
       <c r="GS88" s="63"/>
     </row>
-    <row r="89" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A89" s="180"/>
-      <c r="B89" s="178"/>
+    <row r="89" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A89" s="178"/>
+      <c r="B89" s="180"/>
       <c r="C89" s="136"/>
       <c r="D89" s="72"/>
       <c r="E89" s="137"/>
@@ -22780,11 +22792,11 @@
       <c r="GR89" s="65"/>
       <c r="GS89" s="65"/>
     </row>
-    <row r="90" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A90" s="179">
+    <row r="90" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A90" s="177">
         <v>41</v>
       </c>
-      <c r="B90" s="177"/>
+      <c r="B90" s="179"/>
       <c r="C90" s="147"/>
       <c r="D90" s="147"/>
       <c r="E90" s="138"/>
@@ -22991,9 +23003,9 @@
       <c r="GR90" s="63"/>
       <c r="GS90" s="63"/>
     </row>
-    <row r="91" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A91" s="180"/>
-      <c r="B91" s="178"/>
+    <row r="91" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A91" s="178"/>
+      <c r="B91" s="180"/>
       <c r="C91" s="136"/>
       <c r="D91" s="72"/>
       <c r="E91" s="137"/>
@@ -23200,11 +23212,11 @@
       <c r="GR91" s="65"/>
       <c r="GS91" s="65"/>
     </row>
-    <row r="92" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A92" s="179">
+    <row r="92" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A92" s="177">
         <v>42</v>
       </c>
-      <c r="B92" s="177"/>
+      <c r="B92" s="179"/>
       <c r="C92" s="147"/>
       <c r="D92" s="147"/>
       <c r="E92" s="138"/>
@@ -23411,9 +23423,9 @@
       <c r="GR92" s="63"/>
       <c r="GS92" s="63"/>
     </row>
-    <row r="93" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A93" s="180"/>
-      <c r="B93" s="178"/>
+    <row r="93" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A93" s="178"/>
+      <c r="B93" s="180"/>
       <c r="C93" s="136"/>
       <c r="D93" s="72"/>
       <c r="E93" s="137"/>
@@ -23620,11 +23632,11 @@
       <c r="GR93" s="65"/>
       <c r="GS93" s="65"/>
     </row>
-    <row r="94" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A94" s="179">
+    <row r="94" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A94" s="177">
         <v>43</v>
       </c>
-      <c r="B94" s="177"/>
+      <c r="B94" s="179"/>
       <c r="C94" s="147"/>
       <c r="D94" s="147"/>
       <c r="E94" s="138"/>
@@ -23831,9 +23843,9 @@
       <c r="GR94" s="63"/>
       <c r="GS94" s="63"/>
     </row>
-    <row r="95" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A95" s="180"/>
-      <c r="B95" s="178"/>
+    <row r="95" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A95" s="178"/>
+      <c r="B95" s="180"/>
       <c r="C95" s="136"/>
       <c r="D95" s="72"/>
       <c r="E95" s="137"/>
@@ -24040,11 +24052,11 @@
       <c r="GR95" s="65"/>
       <c r="GS95" s="65"/>
     </row>
-    <row r="96" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A96" s="179">
+    <row r="96" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A96" s="177">
         <v>44</v>
       </c>
-      <c r="B96" s="177"/>
+      <c r="B96" s="179"/>
       <c r="C96" s="147"/>
       <c r="D96" s="147"/>
       <c r="E96" s="138"/>
@@ -24251,9 +24263,9 @@
       <c r="GR96" s="63"/>
       <c r="GS96" s="63"/>
     </row>
-    <row r="97" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A97" s="180"/>
-      <c r="B97" s="178"/>
+    <row r="97" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A97" s="178"/>
+      <c r="B97" s="180"/>
       <c r="C97" s="136"/>
       <c r="D97" s="72"/>
       <c r="E97" s="137"/>
@@ -24460,11 +24472,11 @@
       <c r="GR97" s="65"/>
       <c r="GS97" s="65"/>
     </row>
-    <row r="98" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A98" s="179">
+    <row r="98" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A98" s="177">
         <v>45</v>
       </c>
-      <c r="B98" s="177"/>
+      <c r="B98" s="179"/>
       <c r="C98" s="147"/>
       <c r="D98" s="147"/>
       <c r="E98" s="138"/>
@@ -24671,9 +24683,9 @@
       <c r="GR98" s="63"/>
       <c r="GS98" s="63"/>
     </row>
-    <row r="99" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A99" s="180"/>
-      <c r="B99" s="178"/>
+    <row r="99" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A99" s="178"/>
+      <c r="B99" s="180"/>
       <c r="C99" s="136"/>
       <c r="D99" s="72"/>
       <c r="E99" s="137"/>
@@ -24880,11 +24892,11 @@
       <c r="GR99" s="65"/>
       <c r="GS99" s="65"/>
     </row>
-    <row r="100" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A100" s="179">
+    <row r="100" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A100" s="177">
         <v>46</v>
       </c>
-      <c r="B100" s="177"/>
+      <c r="B100" s="179"/>
       <c r="C100" s="147"/>
       <c r="D100" s="147"/>
       <c r="E100" s="138"/>
@@ -25091,9 +25103,9 @@
       <c r="GR100" s="63"/>
       <c r="GS100" s="63"/>
     </row>
-    <row r="101" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A101" s="180"/>
-      <c r="B101" s="178"/>
+    <row r="101" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A101" s="178"/>
+      <c r="B101" s="180"/>
       <c r="C101" s="136"/>
       <c r="D101" s="72"/>
       <c r="E101" s="137"/>
@@ -25300,11 +25312,11 @@
       <c r="GR101" s="65"/>
       <c r="GS101" s="65"/>
     </row>
-    <row r="102" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A102" s="179">
+    <row r="102" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A102" s="177">
         <v>47</v>
       </c>
-      <c r="B102" s="177"/>
+      <c r="B102" s="179"/>
       <c r="C102" s="147"/>
       <c r="D102" s="147"/>
       <c r="E102" s="138"/>
@@ -25511,9 +25523,9 @@
       <c r="GR102" s="63"/>
       <c r="GS102" s="63"/>
     </row>
-    <row r="103" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A103" s="180"/>
-      <c r="B103" s="178"/>
+    <row r="103" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A103" s="178"/>
+      <c r="B103" s="180"/>
       <c r="C103" s="136"/>
       <c r="D103" s="72"/>
       <c r="E103" s="137"/>
@@ -25720,11 +25732,11 @@
       <c r="GR103" s="65"/>
       <c r="GS103" s="65"/>
     </row>
-    <row r="104" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A104" s="179">
+    <row r="104" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A104" s="177">
         <v>48</v>
       </c>
-      <c r="B104" s="177"/>
+      <c r="B104" s="179"/>
       <c r="C104" s="147"/>
       <c r="D104" s="147"/>
       <c r="E104" s="138"/>
@@ -25931,9 +25943,9 @@
       <c r="GR104" s="63"/>
       <c r="GS104" s="63"/>
     </row>
-    <row r="105" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A105" s="180"/>
-      <c r="B105" s="178"/>
+    <row r="105" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A105" s="178"/>
+      <c r="B105" s="180"/>
       <c r="C105" s="136"/>
       <c r="D105" s="72"/>
       <c r="E105" s="137"/>
@@ -26140,11 +26152,11 @@
       <c r="GR105" s="65"/>
       <c r="GS105" s="65"/>
     </row>
-    <row r="106" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A106" s="179">
+    <row r="106" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A106" s="177">
         <v>49</v>
       </c>
-      <c r="B106" s="177"/>
+      <c r="B106" s="179"/>
       <c r="C106" s="147"/>
       <c r="D106" s="147"/>
       <c r="E106" s="138"/>
@@ -26351,9 +26363,9 @@
       <c r="GR106" s="63"/>
       <c r="GS106" s="63"/>
     </row>
-    <row r="107" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A107" s="180"/>
-      <c r="B107" s="178"/>
+    <row r="107" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A107" s="178"/>
+      <c r="B107" s="180"/>
       <c r="C107" s="136"/>
       <c r="D107" s="72"/>
       <c r="E107" s="137"/>
@@ -26560,11 +26572,11 @@
       <c r="GR107" s="65"/>
       <c r="GS107" s="65"/>
     </row>
-    <row r="108" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A108" s="179">
+    <row r="108" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A108" s="177">
         <v>50</v>
       </c>
-      <c r="B108" s="177"/>
+      <c r="B108" s="179"/>
       <c r="C108" s="147"/>
       <c r="D108" s="147"/>
       <c r="E108" s="138"/>
@@ -26771,9 +26783,9 @@
       <c r="GR108" s="63"/>
       <c r="GS108" s="63"/>
     </row>
-    <row r="109" spans="1:201" s="71" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A109" s="180"/>
-      <c r="B109" s="178"/>
+    <row r="109" spans="1:201" s="71" customFormat="1" ht="10.5" hidden="1" customHeight="1">
+      <c r="A109" s="178"/>
+      <c r="B109" s="180"/>
       <c r="C109" s="136"/>
       <c r="D109" s="72"/>
       <c r="E109" s="137"/>
@@ -29569,6 +29581,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A7:N109">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="6"/>
   </autoFilter>
   <mergeCells count="110">
@@ -29588,6 +29605,14 @@
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="B98:B99"/>
@@ -29598,7 +29623,17 @@
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="FO2:GR2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="EJ2:FN2"/>
@@ -29608,31 +29643,43 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="P2:AT2"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B86:B87"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="B62:B63"/>
@@ -29652,36 +29699,6 @@
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P7:GS109">
@@ -29708,7 +29725,7 @@
       <formula>OR(TEXT(P$4,"aaa")="六",TEXT(P$4,"aaa")="日",TEXT(P$4,"aaa")="休")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:GR1">
       <formula1>"休"</formula1>
     </dataValidation>
